--- a/mfa/I_orientalis/run_files/Clim__D_0_18/data_expmt1.xlsx
+++ b/mfa/I_orientalis/run_files/Clim__D_0_18/data_expmt1.xlsx
@@ -799,7 +799,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -828,6 +828,12 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -879,13 +885,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -907,8 +917,8 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:H34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1823,8 +1833,8 @@
   </sheetPr>
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="1" sqref="A2:H34 A38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1862,18 +1872,19 @@
         <v>0.18</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1E-006</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.0772348968072491</v>
+      <c r="B4" s="2" t="n">
+        <v>0.159143518518519</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.00772348968072491</v>
+        <f aca="false">MIN(0.1*B4, 0.077234896807249 )</f>
+        <v>0.0159143518518519</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2268,8 +2279,8 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:H34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
